--- a/Employee_Reports29/Kim Harvey Cuevas Ayag Q0609.xlsx
+++ b/Employee_Reports29/Kim Harvey Cuevas Ayag Q0609.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -68,7 +72,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -439,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +454,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="69" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -559,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -608,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -657,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -706,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -755,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -804,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -853,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -902,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -951,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1000,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1049,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1098,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1147,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1196,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1216,40 +1220,28 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Bin Transport System (AMH Trainings)</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>AMH</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>LSME-AMH-M-013</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>EQUIPMENT MANUAL</t>
-        </is>
-      </c>
+          <t>Warehouse Management(SOP) (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2025</t>
+          <t>26-Aug-2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2027</t>
+          <t>26-Aug-2027</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1265,7 +1257,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+          <t>Bin Transport System (AMH Trainings)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1275,7 +1267,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-011</t>
+          <t>LSME-AMH-M-013</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1285,20 +1277,20 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2025</t>
+          <t>27-Jul-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2027</t>
+          <t>27-Jul-2027</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1314,12 +1306,24 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DEMAG JIB Crane Manual (AMH Trainings)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
+          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-011</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
           <t>24-Jul-2025</t>
@@ -1331,11 +1335,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1351,40 +1355,28 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Foam Packing Machine (AMH Trainings)</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>AMH</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>LSME-AMH-M-012</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>EQUIPMENT MANUAL</t>
-        </is>
-      </c>
+          <t>DEMAG JIB Crane Manual (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>04-Aug-2025</t>
+          <t>24-Jul-2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>04-Aug-2027</t>
+          <t>24-Jul-2027</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1400,38 +1392,40 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
+          <t>Foam Packing Machine (AMH Trainings)</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v/>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-012</t>
+        </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>SOP</t>
+          <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>22-Jul-2025</t>
+          <t>04-Aug-2025</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>22-Jul-2026</t>
+          <t>04-Aug-2027</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>308</v>
+        <v>685</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1447,16 +1441,18 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>STV AISLE ACCESS PROCEDURE (SOPs)</t>
+          <t>LOTO (SOPs)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>AMH</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v/>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
@@ -1465,20 +1461,20 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2025</t>
+          <t>22-Jul-2025</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2026</t>
+          <t>22-Jul-2026</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>STACKER CRANE 01-04 &amp; 05 -10 AISLE ACCESS PROCEDURE (SOPs)</t>
+          <t>STV AISLE ACCESS PROCEDURE (SOPs)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1502,8 +1498,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
-        <v/>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>VA/IMS/AMH2024/002,Rev 00</t>
+        </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
@@ -1512,12 +1510,12 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>23-Jul-2025</t>
+          <t>24-Jul-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>23-Jul-2026</t>
+          <t>24-Jul-2026</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
@@ -1525,7 +1523,7 @@
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1541,7 +1539,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Warm &amp; Cold Booting of The HandHeld Scanner (SOPs)</t>
+          <t>STACKER CRANE 01-04 &amp; 05 -10 AISLE ACCESS PROCEDURE (SOPs)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1549,8 +1547,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D24" s="3" t="n">
-        <v/>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>VA/IMS/AMH2024/001,Rev 00</t>
+        </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
@@ -1559,20 +1559,20 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>06-Aug-2025</t>
+          <t>23-Jul-2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>06-Aug-2026</t>
+          <t>23-Jul-2026</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>AMH Sorting Transfer Vehicle Software Recovery Procedure (SOPs)</t>
+          <t>Procedure For Warm &amp; Cold Booting of The HandHeld Scanner (SOPs)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1596,8 +1596,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
-        <v/>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-011</t>
+        </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -1606,20 +1608,20 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>14-Aug-2025</t>
+          <t>06-Aug-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>14-Aug-2026</t>
+          <t>06-Aug-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1635,7 +1637,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Troubleshooting Device Net Error On SRM Machine (SOPs)</t>
+          <t>AMH Sorting Transfer Vehicle Software Recovery Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1643,8 +1645,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
-        <v/>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-002</t>
+        </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -1653,12 +1657,12 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>13-Aug-2025</t>
+          <t>14-Aug-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>13-Aug-2026</t>
+          <t>14-Aug-2026</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
@@ -1666,7 +1670,7 @@
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1682,7 +1686,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>STV &amp; SRMSensor Replacement Procedure (SOPs)</t>
+          <t>Troubleshooting Device Net Error On SRM Machine (SOPs)</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1690,8 +1694,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
-        <v/>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-015</t>
+        </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
@@ -1709,11 +1715,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1729,7 +1735,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Replacing STV Power Feed Rail Unit Procedure (SOPs)</t>
+          <t>STV &amp; SRMSensor Replacement Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1737,8 +1743,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
-        <v/>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-003</t>
+        </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -1747,20 +1755,20 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>11-Aug-2025</t>
+          <t>13-Aug-2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>11-Aug-2026</t>
+          <t>13-Aug-2026</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1776,7 +1784,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Clearing Data ,Log Acquisitions On ASRS Machine and savings. (SOPs)</t>
+          <t xml:space="preserve"> Replacing STV Power Feed Rail Unit Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1784,8 +1792,10 @@
           <t>AMH</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
-        <v/>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-005</t>
+        </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
@@ -1794,20 +1804,20 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>17-Aug-2025</t>
+          <t>11-Aug-2025</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>17-Aug-2026</t>
+          <t>11-Aug-2026</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1823,12 +1833,24 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SRM Waterflooding Recovery (SOPs)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
+          <t>Clearing Data ,Log Acquisitions On ASRS Machine and savings. (SOPs)</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-SOP-004</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
           <t>17-Aug-2025</t>
@@ -1840,11 +1862,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1860,7 +1882,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SRM Laser Distance Meter Adjustment (SOPs)</t>
+          <t>SRM Waterflooding Recovery (SOPs)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -1868,20 +1890,20 @@
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>21-Aug-2025</t>
+          <t>17-Aug-2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>21-Aug-2026</t>
+          <t>17-Aug-2026</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1897,7 +1919,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ASI- I  3.0 Profibus Gateway Configurations (SOPs)</t>
+          <t>SRM Laser Distance Meter Adjustment (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -1905,20 +1927,20 @@
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>24-Aug-2025</t>
+          <t>21-Aug-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>24-Aug-2026</t>
+          <t>21-Aug-2026</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1934,7 +1956,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Equipment Request &amp; Handover Procedure(AMH) (SOPs)</t>
+          <t>ASI- I  3.0 Profibus Gateway Configurations (SOPs)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -1951,11 +1973,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -1971,7 +1993,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Storage Retrieval Machine Software Recovery Procedure (SOPs)</t>
+          <t>Equipment Request &amp; Handover Procedure(AMH) (SOPs)</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -1979,20 +2001,20 @@
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>25-Aug-2025</t>
+          <t>24-Aug-2025</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>25-Aug-2026</t>
+          <t>24-Aug-2026</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2008,7 +2030,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ASRS Operation Recovery Procedure (SOPs)</t>
+          <t>Storage Retrieval Machine Software Recovery Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -2025,11 +2047,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2045,7 +2067,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Storage Retrieval Machine Software Recovery Procedure.1 (SOPs)</t>
+          <t>ASRS Operation Recovery Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -2053,20 +2075,20 @@
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>25-Aug-2025</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2026</t>
+          <t>25-Aug-2026</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2082,7 +2104,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Sorting Transfer Vehicle Operation (SOPs)</t>
+          <t>Storage Retrieval Machine Software Recovery Procedure.1 (SOPs)</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -2099,11 +2121,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2119,7 +2141,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>AMH FT-12 Basic Calibration Setup (SOPs)</t>
+          <t>Sorting Transfer Vehicle Operation (SOPs)</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -2127,20 +2149,20 @@
       <c r="E38" s="3" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>27-Aug-2025</t>
+          <t>26-Aug-2025</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>27-Aug-2026</t>
+          <t>26-Aug-2026</t>
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2156,7 +2178,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>AMH Conveyors Operation (SOPs)</t>
+          <t>AMH FT-12 Basic Calibration Setup (SOPs)</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2173,11 +2195,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2186,6 +2208,43 @@
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>AMH Conveyors Operation (SOPs)</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>27-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>27-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>343</v>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
